--- a/weggooien/VAP Turnout.xlsx
+++ b/weggooien/VAP Turnout.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liora\Desktop\2018\programmeren\Eindproject_Liora\weggooien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B4E2E9-A974-4772-8128-1813F0C10271}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAD737-8597-4DF3-9314-54697699FA75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VAP Turnout" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -987,12 +979,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1015,8 +1013,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,10 +1329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1364,7 +1365,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
@@ -1381,7 +1382,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2009</v>
       </c>
       <c r="D3" t="s">
@@ -1398,7 +1399,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2004</v>
       </c>
       <c r="D4" t="s">
@@ -1415,7 +1416,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1999</v>
       </c>
       <c r="D5" t="s">
@@ -1432,7 +1433,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1996</v>
       </c>
       <c r="D6" t="s">
@@ -1517,7 +1518,7 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1994</v>
       </c>
       <c r="D11" t="s">
@@ -1534,7 +1535,7 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1989</v>
       </c>
       <c r="D12" t="s">
@@ -1551,7 +1552,7 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1984</v>
       </c>
       <c r="D13" t="s">
@@ -1568,7 +1569,7 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1979</v>
       </c>
       <c r="D14" t="s">
@@ -1619,7 +1620,7 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2007</v>
       </c>
       <c r="D17" t="s">
@@ -1653,7 +1654,7 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2013</v>
       </c>
       <c r="D19" t="s">
@@ -3607,7 +3608,7 @@
       <c r="B135" t="s">
         <v>6</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>1987</v>
       </c>
       <c r="D135" t="s">
@@ -3675,7 +3676,7 @@
       <c r="B139" t="s">
         <v>6</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>1999</v>
       </c>
       <c r="D139" t="s">
@@ -3692,7 +3693,7 @@
       <c r="B140" t="s">
         <v>6</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>1995</v>
       </c>
       <c r="D140" t="s">
@@ -3841,7 +3842,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>